--- a/ТВИМС/Lab1 Крит Пирсона.xlsx
+++ b/ТВИМС/Lab1 Крит Пирсона.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Force\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Force\Documents\University\3sem\ТВИМС\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFCC26-0239-4461-83F1-2FFDB521FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2509D02-FF8C-4D71-876D-3EF54CD4F0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,6 +394,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -409,13 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1803,7 +1803,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,355 +1813,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="24">
         <v>36</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="24">
         <v>14</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="24">
         <v>40</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="24">
         <v>24</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="24">
         <v>30</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="24">
         <v>32</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="24">
         <v>24</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="24">
         <v>32</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="24">
         <v>29</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="24">
         <v>17</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
       <c r="O2" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>26</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>29</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="24">
         <v>33</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>46</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="24">
         <v>38</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="24">
         <v>16</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="24">
         <v>44</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>36</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="24">
         <v>18</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="24">
         <v>33</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
       <c r="O3" s="6">
         <f>1+LOG(O2,2)</f>
         <v>7.6438561897747253</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>36</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>31</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>24</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>29</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>30</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>25</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>16</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>29</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="24">
         <v>38</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="24">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>34</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>43</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>31</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <v>24</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <v>23</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <v>22</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <v>18</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <v>29</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="24">
         <v>34</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="24">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="24">
         <v>24</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="24">
         <v>33</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="24">
         <v>36</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="24">
         <v>24</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="24">
         <v>17</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="24">
         <v>36</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="24">
         <v>12</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="24">
         <v>25</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="24">
         <v>40</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>29</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="24">
         <v>29</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="24">
         <v>16</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="24">
         <v>21</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="24">
         <v>29</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="24">
         <v>41</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="24">
         <v>30</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="24">
         <v>29</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="24">
         <v>31</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="24">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="24">
         <v>17</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="24">
         <v>14</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="24">
         <v>30</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="24">
         <v>42</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="24">
         <v>45</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="24">
         <v>42</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="24">
         <v>42</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="24">
         <v>39</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="24">
         <v>26</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="24">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="24">
         <v>37</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="24">
         <v>45</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="24">
         <v>28</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="24">
         <v>32</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="24">
         <v>38</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="24">
         <v>28</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="24">
         <v>23</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="24">
         <v>23</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="24">
         <v>23</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="24">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="24">
         <v>22</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="24">
         <v>25</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="24">
         <v>30</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="24">
         <v>18</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="24">
         <v>20</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="24">
         <v>29</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="24">
         <v>38</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="24">
         <v>21</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="24">
         <v>25</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>29</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="24">
         <v>16</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="24">
         <v>21</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="24">
         <v>30</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="24">
         <v>26</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="24">
         <v>26</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="24">
         <v>31</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="24">
         <v>26</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="24">
         <v>36</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="24">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
@@ -2194,16 +2194,16 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="10">
         <f>F13/E12</f>
         <v>4.25</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="10"/>
@@ -2216,14 +2216,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2498,17 +2498,17 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
@@ -2529,247 +2529,256 @@
       <c r="F27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
-        <v>1E-99</v>
+        <v>-10000000000</v>
       </c>
       <c r="B28" s="13">
-        <f t="shared" ref="B28" si="6">B18</f>
-        <v>20.6</v>
+        <f>B17</f>
+        <v>16.3</v>
       </c>
       <c r="C28" s="14">
-        <f>D18+2</f>
-        <v>10</v>
+        <f>D17</f>
+        <v>7</v>
       </c>
       <c r="D28" s="19">
         <f>_xlfn.NORM.DIST(B28,$H$17,$H$21,TRUE)</f>
-        <v>0.12383043818936976</v>
+        <v>4.1153477226615054E-2</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" ref="E28:E33" si="7">$O$2*D28</f>
-        <v>12.383043818936976</v>
+        <f t="shared" ref="E28:E33" si="6">$O$2*D28</f>
+        <v>4.1153477226615056</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" ref="F28:F33" si="8">C28-$O$2*D28</f>
-        <v>-2.3830438189369758</v>
+        <f t="shared" ref="F28:F33" si="7">C28-$O$2*D28</f>
+        <v>2.8846522773384944</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" ref="G28:G33" si="9">POWER(F28,2)</f>
-        <v>5.6788978429737256</v>
+        <f t="shared" ref="G28:G33" si="8">POWER(F28,2)</f>
+        <v>8.3212187611541619</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" ref="H28:H33" si="10">G28/E28</f>
-        <v>0.45860274145918606</v>
+        <f t="shared" ref="H28:H33" si="9">G28/E28</f>
+        <v>2.0219965169243603</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" ref="I28:I33" si="11">(POWER(C28,2))/E28</f>
-        <v>8.0755589225222106</v>
+        <f t="shared" ref="I28:I33" si="10">(POWER(C28,2))/E28</f>
+        <v>11.906648794262855</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <f t="shared" ref="A29:B32" si="12">A19</f>
+        <f>A18</f>
+        <v>16.3</v>
+      </c>
+      <c r="B29" s="13">
+        <f t="shared" ref="B29:B34" si="11">B18</f>
         <v>20.6</v>
       </c>
-      <c r="B29" s="13">
-        <f t="shared" si="12"/>
-        <v>24.900000000000002</v>
-      </c>
       <c r="C29" s="14">
-        <f>6</f>
-        <v>6</v>
+        <f t="shared" ref="C29:C34" si="12">D18</f>
+        <v>8</v>
       </c>
       <c r="D29" s="19">
         <f>_xlfn.NORM.DIST(B29,$H$17,$H$21,TRUE)-_xlfn.NORM.DIST(A29,$H$17,$H$21,TRUE)</f>
-        <v>0.15893542663918678</v>
+        <v>8.2676960962754703E-2</v>
       </c>
       <c r="E29" s="19">
+        <f t="shared" si="6"/>
+        <v>8.2676960962754702</v>
+      </c>
+      <c r="F29" s="19">
         <f t="shared" si="7"/>
-        <v>15.893542663918678</v>
-      </c>
-      <c r="F29" s="19">
+        <v>-0.2676960962754702</v>
+      </c>
+      <c r="G29" s="19">
         <f t="shared" si="8"/>
-        <v>-9.8935426639186783</v>
-      </c>
-      <c r="G29" s="19">
+        <v>7.1661199961125813E-2</v>
+      </c>
+      <c r="H29" s="19">
         <f t="shared" si="9"/>
-        <v>97.882186442779101</v>
-      </c>
-      <c r="H29" s="19">
+        <v>8.6676141849733202E-3</v>
+      </c>
+      <c r="I29" s="19">
         <f t="shared" si="10"/>
-        <v>6.158613501884008</v>
-      </c>
-      <c r="I29" s="19">
-        <f t="shared" si="11"/>
-        <v>2.2650708379653297</v>
+        <v>7.7409715179095029</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
+        <f t="shared" ref="A30:A33" si="13">A19</f>
+        <v>20.6</v>
+      </c>
+      <c r="B30" s="13">
+        <f t="shared" si="11"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="C30" s="14">
         <f t="shared" si="12"/>
-        <v>24.900000000000002</v>
-      </c>
-      <c r="B30" s="13">
-        <f t="shared" si="12"/>
-        <v>29.200000000000003</v>
-      </c>
-      <c r="C30" s="14">
-        <f>D20</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D30" s="19">
         <f>_xlfn.NORM.DIST(B30,$H$17,$H$21,TRUE)-_xlfn.NORM.DIST(A30,$H$17,$H$21,TRUE)</f>
-        <v>0.21993117343975027</v>
+        <v>0.15893542663918678</v>
       </c>
       <c r="E30" s="19">
+        <f t="shared" si="6"/>
+        <v>15.893542663918678</v>
+      </c>
+      <c r="F30" s="19">
         <f t="shared" si="7"/>
-        <v>21.993117343975026</v>
-      </c>
-      <c r="F30" s="19">
+        <v>-0.89354266391867831</v>
+      </c>
+      <c r="G30" s="19">
         <f t="shared" si="8"/>
-        <v>2.006882656024974</v>
-      </c>
-      <c r="G30" s="19">
+        <v>0.79841849224288808</v>
+      </c>
+      <c r="H30" s="19">
         <f t="shared" si="9"/>
-        <v>4.0275779950538535</v>
-      </c>
-      <c r="H30" s="19">
+        <v>5.0235401201989265E-2</v>
+      </c>
+      <c r="I30" s="19">
         <f t="shared" si="10"/>
-        <v>0.18312901859531983</v>
-      </c>
-      <c r="I30" s="19">
-        <f t="shared" si="11"/>
-        <v>26.190011674620294</v>
+        <v>14.156692737283311</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
+        <f t="shared" si="13"/>
+        <v>24.900000000000002</v>
+      </c>
+      <c r="B31" s="13">
+        <f t="shared" si="11"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="C31" s="14">
         <f t="shared" si="12"/>
-        <v>29.200000000000003</v>
-      </c>
-      <c r="B31" s="13">
-        <f t="shared" si="12"/>
-        <v>33.5</v>
-      </c>
-      <c r="C31" s="14">
-        <f>D21</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D31" s="19">
         <f>_xlfn.NORM.DIST(B31,$H$17,$H$21,TRUE)-_xlfn.NORM.DIST(A31,$H$17,$H$21,TRUE)</f>
-        <v>0.21909238178121637</v>
+        <v>0.21993117343975027</v>
       </c>
       <c r="E31" s="19">
+        <f t="shared" si="6"/>
+        <v>21.993117343975026</v>
+      </c>
+      <c r="F31" s="19">
         <f t="shared" si="7"/>
-        <v>21.909238178121637</v>
-      </c>
-      <c r="F31" s="19">
+        <v>2.006882656024974</v>
+      </c>
+      <c r="G31" s="19">
         <f t="shared" si="8"/>
-        <v>-3.9092381781216368</v>
-      </c>
-      <c r="G31" s="19">
+        <v>4.0275779950538535</v>
+      </c>
+      <c r="H31" s="19">
         <f t="shared" si="9"/>
-        <v>15.282143133283775</v>
-      </c>
-      <c r="H31" s="19">
+        <v>0.18312901859531983</v>
+      </c>
+      <c r="I31" s="19">
         <f t="shared" si="10"/>
-        <v>0.69752051664417902</v>
-      </c>
-      <c r="I31" s="19">
-        <f t="shared" si="11"/>
-        <v>14.788282338522542</v>
+        <v>26.190011674620294</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
+        <f t="shared" si="13"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="B32" s="13">
+        <f t="shared" si="11"/>
+        <v>33.5</v>
+      </c>
+      <c r="C32" s="14">
         <f t="shared" si="12"/>
-        <v>33.5</v>
-      </c>
-      <c r="B32" s="13">
-        <f t="shared" si="12"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="C32" s="14">
-        <f>D22</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D32" s="19">
         <f>_xlfn.NORM.DIST(B32,$H$17,$H$21,TRUE)-_xlfn.NORM.DIST(A32,$H$17,$H$21,TRUE)</f>
-        <v>0.1571236789724435</v>
+        <v>0.21909238178121637</v>
       </c>
       <c r="E32" s="19">
+        <f t="shared" si="6"/>
+        <v>21.909238178121637</v>
+      </c>
+      <c r="F32" s="19">
         <f t="shared" si="7"/>
-        <v>15.71236789724435</v>
-      </c>
-      <c r="F32" s="19">
+        <v>-3.9092381781216368</v>
+      </c>
+      <c r="G32" s="19">
         <f t="shared" si="8"/>
-        <v>-5.7123678972443503</v>
-      </c>
-      <c r="G32" s="19">
+        <v>15.282143133283775</v>
+      </c>
+      <c r="H32" s="19">
         <f t="shared" si="9"/>
-        <v>32.631146993467844</v>
-      </c>
-      <c r="H32" s="19">
+        <v>0.69752051664417902</v>
+      </c>
+      <c r="I32" s="19">
         <f t="shared" si="10"/>
-        <v>2.0767809923283891</v>
-      </c>
-      <c r="I32" s="19">
-        <f t="shared" si="11"/>
-        <v>6.3644130950840383</v>
+        <v>14.788282338522542</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
+        <f t="shared" si="13"/>
+        <v>33.5</v>
+      </c>
+      <c r="B33" s="13">
+        <f t="shared" si="11"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="D33" s="19">
+        <f>1-_xlfn.NORM.DIST(A33,$H$17,$H$21,TRUE)</f>
+        <v>0.27821057995047682</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="6"/>
+        <v>27.821057995047681</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="7"/>
+        <v>-17.821057995047681</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="8"/>
+        <v>317.59010806285289</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="9"/>
+        <v>11.41545760478936</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" si="10"/>
+        <v>3.594399609741679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <f>A23</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="B33" s="13">
-        <f>1E+99</f>
-        <v>9.9999999999999997E+98</v>
-      </c>
-      <c r="C33" s="14">
-        <f>D23+5</f>
-        <v>18</v>
-      </c>
-      <c r="D33" s="19">
-        <f>1-_xlfn.NORM.DIST(A33,$H$17,$H$21,TRUE)</f>
-        <v>0.12108690097803332</v>
-      </c>
-      <c r="E33" s="19">
-        <f t="shared" si="7"/>
-        <v>12.108690097803333</v>
-      </c>
-      <c r="F33" s="19">
-        <f t="shared" si="8"/>
-        <v>5.8913099021966673</v>
-      </c>
-      <c r="G33" s="19">
-        <f t="shared" si="9"/>
-        <v>34.707532363720503</v>
-      </c>
-      <c r="H33" s="19">
-        <f t="shared" si="10"/>
-        <v>2.8663325333610512</v>
-      </c>
-      <c r="I33" s="19">
+      <c r="B34" s="13">
         <f t="shared" si="11"/>
-        <v>26.75764243555772</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+        <v>42.099999999999994</v>
+      </c>
+      <c r="C34" s="14">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -2784,7 +2793,7 @@
       <c r="B35" s="21"/>
       <c r="C35" s="21">
         <f>SUM(C28:C33)</f>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" s="17">
         <f>SUM(D28:D33)</f>
@@ -2800,11 +2809,11 @@
       </c>
       <c r="H35" s="17">
         <f>SUM(H28:H33)</f>
-        <v>12.440979304272133</v>
+        <v>14.377006672340181</v>
       </c>
       <c r="I35" s="17">
         <f>SUM(I28:I33)</f>
-        <v>84.440979304272133</v>
+        <v>78.377006672340201</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
